--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\Desktop\arm\arm_3d_model-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\Desktop\arm\arm_3d_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37361D2E-03B4-4410-8C21-27021F21898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BAA5C-7D6E-4F40-8B9E-C33E116419C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,9 +333,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,7 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,603 +653,603 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f t="shared" ref="B5:B46" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
+      <c r="B42" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>1</v>
       </c>
     </row>
